--- a/lab2/AnsiblePythonLab.xlsx
+++ b/lab2/AnsiblePythonLab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927B428-64D7-8C47-A059-ED8E0F98BAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F1549-87BB-FF48-A2AA-C9075E20A36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="500" windowWidth="29000" windowHeight="19280" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>ホスト名</t>
     <phoneticPr fontId="1"/>
@@ -133,15 +133,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>172.xx.xx.xx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CIDR(mask)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ローカルユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.25.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.25.2.254</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※パラメータ設定シートのレイアウトは変更しないでください。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -225,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,16 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +272,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,368 +600,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
-  <dimension ref="A2:G40"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>24</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="12"/>
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="1"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="1"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="1"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D16" s="1"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="D17" s="1"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="D18" s="1"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="D19" s="1"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" s="1"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="1"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="1"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="17">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab2/AnsiblePythonLab.xlsx
+++ b/lab2/AnsiblePythonLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F1549-87BB-FF48-A2AA-C9075E20A36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C1654-934B-344E-A424-AAD66CBB08CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
+    <workbookView xWindow="8420" yWindow="7020" windowWidth="30520" windowHeight="18400" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
@@ -277,13 +277,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +603,7 @@
   <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -661,15 +661,15 @@
       <c r="B7" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -681,10 +681,10 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -798,10 +798,10 @@
       <c r="F23" s="10"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
@@ -881,6 +881,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
@@ -888,16 +898,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab2/AnsiblePythonLab.xlsx
+++ b/lab2/AnsiblePythonLab.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C1654-934B-344E-A424-AAD66CBB08CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1BFCF-A237-414B-838C-CDEBF38DFD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="7020" windowWidth="30520" windowHeight="18400" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
+    <workbookView xWindow="-31240" yWindow="2840" windowWidth="30520" windowHeight="18400" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
     <sheet name="target" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,25 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>ホスト名</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>control</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gateway</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dns</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -133,10 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CIDR(mask)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ローカルユーザ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,21 +129,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>172.25.2.254</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.8.8.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※パラメータ設定シートのレイアウトは変更しないでください。</t>
-    <rPh sb="6" eb="8">
+  </si>
+  <si>
+    <t>システム設定パラメータシート</t>
+    <rPh sb="4" eb="6">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver.　2.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lastupdate.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他記載事項</t>
+    <rPh sb="3" eb="7">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPv4 CIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトGW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業管理No</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.25.2.118</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.25.0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアウォール(インバウンド許可）リスト</t>
+    <rPh sb="15" eb="17">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ポート番号orサービス名で記述</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -209,12 +260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -237,13 +288,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,29 +359,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,304 +721,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="166" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1">
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="8">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="D57" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="58" spans="2:7">
+      <c r="F58" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="G58" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="22">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G56"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
